--- a/po_analysis_by_asin/B0BGP8FGNZ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BGP8FGNZ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,201 +452,425 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45348</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>324</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>202</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45369</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45390</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45397</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45404</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45411</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>308</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45418</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45425</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>248</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45432</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45439</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>184</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45446</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>412</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45453</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45460</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>180</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45488</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>176</v>
+        <v>770</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45495</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>72</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45502</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>340</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45509</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>536</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45523</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45530</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>224</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45537</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45551</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45558</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>216</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45565</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B54" t="n">
         <v>420</v>
       </c>
     </row>
@@ -661,7 +885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,65 +907,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>944</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45383</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>416</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45413</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>664</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45444</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45474</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>532</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45505</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>956</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45536</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>276</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45566</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>420</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BGP8FGNZ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BGP8FGNZ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>770</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18">
@@ -676,201 +676,169 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45354.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>324</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>202</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>286</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>16</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>308</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>248</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>64</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>412</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>84</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>180</v>
+        <v>536</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>176</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>72</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>340</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>140</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>45543.99999999999</v>
-      </c>
-      <c r="B51" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>45557.99999999999</v>
-      </c>
-      <c r="B52" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45564.99999999999</v>
-      </c>
-      <c r="B53" t="n">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45571.99999999999</v>
-      </c>
-      <c r="B54" t="n">
         <v>420</v>
       </c>
     </row>
@@ -885,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -950,7 +918,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1022</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="8">
@@ -995,65 +963,57 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>944</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45412.99999999999</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>416</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45443.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>664</v>
+        <v>676</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>676</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45504.99999999999</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>532</v>
+        <v>956</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45535.99999999999</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>956</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45565.99999999999</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45596.99999999999</v>
-      </c>
-      <c r="B20" t="n">
         <v>420</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BGP8FGNZ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BGP8FGNZ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -869,7 +870,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1015,6 +1016,845 @@
       </c>
       <c r="B19" t="n">
         <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>162</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-69.14117710873968</v>
+      </c>
+      <c r="D2" t="n">
+        <v>389.7479749808867</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>163</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-50.96300895755991</v>
+      </c>
+      <c r="D3" t="n">
+        <v>404.7121643650302</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>164</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-55.28103892213954</v>
+      </c>
+      <c r="D4" t="n">
+        <v>371.3111155756816</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>164</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-65.16269358623735</v>
+      </c>
+      <c r="D5" t="n">
+        <v>385.3293080331908</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>165</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-44.19701946219981</v>
+      </c>
+      <c r="D6" t="n">
+        <v>377.2841418952793</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>165</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-68.79404222402501</v>
+      </c>
+      <c r="D7" t="n">
+        <v>396.1867950836595</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>166</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-68.38345298022746</v>
+      </c>
+      <c r="D8" t="n">
+        <v>390.747356212882</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>166</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-60.9434435109778</v>
+      </c>
+      <c r="D9" t="n">
+        <v>398.9370844924284</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>167</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-58.36630106120064</v>
+      </c>
+      <c r="D10" t="n">
+        <v>398.7885152410263</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>167</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-71.93335672738688</v>
+      </c>
+      <c r="D11" t="n">
+        <v>387.2447989066105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>168</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-56.53692527638101</v>
+      </c>
+      <c r="D12" t="n">
+        <v>387.8516425691544</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>169</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-75.02153497499414</v>
+      </c>
+      <c r="D13" t="n">
+        <v>387.2292171710479</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>169</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-51.81791494689263</v>
+      </c>
+      <c r="D14" t="n">
+        <v>390.1209237524375</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>170</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-53.18376261221403</v>
+      </c>
+      <c r="D15" t="n">
+        <v>395.1623823702468</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>171</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-56.49876892246955</v>
+      </c>
+      <c r="D16" t="n">
+        <v>393.359326455125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>173</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-65.0762595809101</v>
+      </c>
+      <c r="D17" t="n">
+        <v>389.2137246853135</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>174</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-46.86630200640397</v>
+      </c>
+      <c r="D18" t="n">
+        <v>398.0582137011378</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>175</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-55.3932248491411</v>
+      </c>
+      <c r="D19" t="n">
+        <v>407.9894175335934</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>176</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-76.85674578729373</v>
+      </c>
+      <c r="D20" t="n">
+        <v>399.5215707919106</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>176</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-45.79362771027505</v>
+      </c>
+      <c r="D21" t="n">
+        <v>384.6662860241313</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>177</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-53.80462914069501</v>
+      </c>
+      <c r="D22" t="n">
+        <v>404.2706023350705</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>177</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-40.0184162090435</v>
+      </c>
+      <c r="D23" t="n">
+        <v>390.2329644175252</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>179</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-45.59217472807192</v>
+      </c>
+      <c r="D24" t="n">
+        <v>391.1668950892308</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>181</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-47.34089955586433</v>
+      </c>
+      <c r="D25" t="n">
+        <v>398.5304907333594</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>182</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-52.11060072923312</v>
+      </c>
+      <c r="D26" t="n">
+        <v>408.9944334224615</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>183</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-43.79109692934537</v>
+      </c>
+      <c r="D27" t="n">
+        <v>416.0614421917281</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>183</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-53.42880982175542</v>
+      </c>
+      <c r="D28" t="n">
+        <v>397.2875980792705</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>187</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-37.05838284784337</v>
+      </c>
+      <c r="D29" t="n">
+        <v>418.5790075566449</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>197</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-37.71778975532214</v>
+      </c>
+      <c r="D30" t="n">
+        <v>409.29140820543</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>198</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-33.13806149139964</v>
+      </c>
+      <c r="D31" t="n">
+        <v>422.7435188059849</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>198</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-13.0294941564837</v>
+      </c>
+      <c r="D32" t="n">
+        <v>426.8720524297792</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>199</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-29.3013879268508</v>
+      </c>
+      <c r="D33" t="n">
+        <v>433.9803662952361</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>199</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-29.79267094274116</v>
+      </c>
+      <c r="D34" t="n">
+        <v>440.2444923551952</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>200</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-46.48695404441958</v>
+      </c>
+      <c r="D35" t="n">
+        <v>428.2550794069162</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>200</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-33.56933055952182</v>
+      </c>
+      <c r="D36" t="n">
+        <v>450.0053379971378</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>201</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-27.38905182285995</v>
+      </c>
+      <c r="D37" t="n">
+        <v>425.8460283406527</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>201</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-10.25356167449192</v>
+      </c>
+      <c r="D38" t="n">
+        <v>435.8483769323495</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>202</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-21.34787724938449</v>
+      </c>
+      <c r="D39" t="n">
+        <v>425.6045398307986</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>203</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-15.84913325767039</v>
+      </c>
+      <c r="D40" t="n">
+        <v>427.0864867845486</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>205</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-31.59311957043742</v>
+      </c>
+      <c r="D41" t="n">
+        <v>420.271315551419</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>205</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-24.7327670613058</v>
+      </c>
+      <c r="D42" t="n">
+        <v>421.8217645025487</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>206</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-12.01408114974858</v>
+      </c>
+      <c r="D43" t="n">
+        <v>437.3020860578099</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>206</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-18.00379955847925</v>
+      </c>
+      <c r="D44" t="n">
+        <v>444.5756037591564</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>208</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-4.459946445159673</v>
+      </c>
+      <c r="D45" t="n">
+        <v>433.9780003438468</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>208</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-14.69494599566723</v>
+      </c>
+      <c r="D46" t="n">
+        <v>429.9975219634454</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>209</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-18.30465306057593</v>
+      </c>
+      <c r="D47" t="n">
+        <v>429.9647016005885</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>210</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-5.053574078026948</v>
+      </c>
+      <c r="D48" t="n">
+        <v>410.4182053570485</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>210</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-22.98975438411694</v>
+      </c>
+      <c r="D49" t="n">
+        <v>442.6013941587495</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>211</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1.588885880928661</v>
+      </c>
+      <c r="D50" t="n">
+        <v>448.0871982041684</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>211</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-17.78489954880907</v>
+      </c>
+      <c r="D51" t="n">
+        <v>418.8897686169318</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>212</v>
+      </c>
+      <c r="C52" t="n">
+        <v>12.97720544991339</v>
+      </c>
+      <c r="D52" t="n">
+        <v>451.3595867638123</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>212</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-11.09200942605714</v>
+      </c>
+      <c r="D53" t="n">
+        <v>434.6418740570913</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>213</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-18.79279106612192</v>
+      </c>
+      <c r="D54" t="n">
+        <v>435.6406881157395</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>214</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-11.49256630960303</v>
+      </c>
+      <c r="D55" t="n">
+        <v>433.0532931937977</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>214</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-6.26142570368485</v>
+      </c>
+      <c r="D56" t="n">
+        <v>455.9010043134966</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>215</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-21.47882801177926</v>
+      </c>
+      <c r="D57" t="n">
+        <v>431.7768522254316</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>215</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-5.061196340132772</v>
+      </c>
+      <c r="D58" t="n">
+        <v>434.2879377482606</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BGP8FGNZ_po_data.xlsx
+++ b/po_analysis_by_asin/B0BGP8FGNZ_po_data.xlsx
@@ -1029,7 +1029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,16 +1048,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1066,12 +1056,6 @@
       <c r="B2" t="n">
         <v>162</v>
       </c>
-      <c r="C2" t="n">
-        <v>-69.14117710873968</v>
-      </c>
-      <c r="D2" t="n">
-        <v>389.7479749808867</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1080,12 +1064,6 @@
       <c r="B3" t="n">
         <v>163</v>
       </c>
-      <c r="C3" t="n">
-        <v>-50.96300895755991</v>
-      </c>
-      <c r="D3" t="n">
-        <v>404.7121643650302</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1094,12 +1072,6 @@
       <c r="B4" t="n">
         <v>164</v>
       </c>
-      <c r="C4" t="n">
-        <v>-55.28103892213954</v>
-      </c>
-      <c r="D4" t="n">
-        <v>371.3111155756816</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1108,12 +1080,6 @@
       <c r="B5" t="n">
         <v>164</v>
       </c>
-      <c r="C5" t="n">
-        <v>-65.16269358623735</v>
-      </c>
-      <c r="D5" t="n">
-        <v>385.3293080331908</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1122,12 +1088,6 @@
       <c r="B6" t="n">
         <v>165</v>
       </c>
-      <c r="C6" t="n">
-        <v>-44.19701946219981</v>
-      </c>
-      <c r="D6" t="n">
-        <v>377.2841418952793</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1136,12 +1096,6 @@
       <c r="B7" t="n">
         <v>165</v>
       </c>
-      <c r="C7" t="n">
-        <v>-68.79404222402501</v>
-      </c>
-      <c r="D7" t="n">
-        <v>396.1867950836595</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1150,12 +1104,6 @@
       <c r="B8" t="n">
         <v>166</v>
       </c>
-      <c r="C8" t="n">
-        <v>-68.38345298022746</v>
-      </c>
-      <c r="D8" t="n">
-        <v>390.747356212882</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1164,12 +1112,6 @@
       <c r="B9" t="n">
         <v>166</v>
       </c>
-      <c r="C9" t="n">
-        <v>-60.9434435109778</v>
-      </c>
-      <c r="D9" t="n">
-        <v>398.9370844924284</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1178,12 +1120,6 @@
       <c r="B10" t="n">
         <v>167</v>
       </c>
-      <c r="C10" t="n">
-        <v>-58.36630106120064</v>
-      </c>
-      <c r="D10" t="n">
-        <v>398.7885152410263</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1192,12 +1128,6 @@
       <c r="B11" t="n">
         <v>167</v>
       </c>
-      <c r="C11" t="n">
-        <v>-71.93335672738688</v>
-      </c>
-      <c r="D11" t="n">
-        <v>387.2447989066105</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1206,12 +1136,6 @@
       <c r="B12" t="n">
         <v>168</v>
       </c>
-      <c r="C12" t="n">
-        <v>-56.53692527638101</v>
-      </c>
-      <c r="D12" t="n">
-        <v>387.8516425691544</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1220,12 +1144,6 @@
       <c r="B13" t="n">
         <v>169</v>
       </c>
-      <c r="C13" t="n">
-        <v>-75.02153497499414</v>
-      </c>
-      <c r="D13" t="n">
-        <v>387.2292171710479</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1234,12 +1152,6 @@
       <c r="B14" t="n">
         <v>169</v>
       </c>
-      <c r="C14" t="n">
-        <v>-51.81791494689263</v>
-      </c>
-      <c r="D14" t="n">
-        <v>390.1209237524375</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1248,12 +1160,6 @@
       <c r="B15" t="n">
         <v>170</v>
       </c>
-      <c r="C15" t="n">
-        <v>-53.18376261221403</v>
-      </c>
-      <c r="D15" t="n">
-        <v>395.1623823702468</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1262,12 +1168,6 @@
       <c r="B16" t="n">
         <v>171</v>
       </c>
-      <c r="C16" t="n">
-        <v>-56.49876892246955</v>
-      </c>
-      <c r="D16" t="n">
-        <v>393.359326455125</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1276,12 +1176,6 @@
       <c r="B17" t="n">
         <v>173</v>
       </c>
-      <c r="C17" t="n">
-        <v>-65.0762595809101</v>
-      </c>
-      <c r="D17" t="n">
-        <v>389.2137246853135</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1290,12 +1184,6 @@
       <c r="B18" t="n">
         <v>174</v>
       </c>
-      <c r="C18" t="n">
-        <v>-46.86630200640397</v>
-      </c>
-      <c r="D18" t="n">
-        <v>398.0582137011378</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1304,12 +1192,6 @@
       <c r="B19" t="n">
         <v>175</v>
       </c>
-      <c r="C19" t="n">
-        <v>-55.3932248491411</v>
-      </c>
-      <c r="D19" t="n">
-        <v>407.9894175335934</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1318,12 +1200,6 @@
       <c r="B20" t="n">
         <v>176</v>
       </c>
-      <c r="C20" t="n">
-        <v>-76.85674578729373</v>
-      </c>
-      <c r="D20" t="n">
-        <v>399.5215707919106</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1332,12 +1208,6 @@
       <c r="B21" t="n">
         <v>176</v>
       </c>
-      <c r="C21" t="n">
-        <v>-45.79362771027505</v>
-      </c>
-      <c r="D21" t="n">
-        <v>384.6662860241313</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1346,12 +1216,6 @@
       <c r="B22" t="n">
         <v>177</v>
       </c>
-      <c r="C22" t="n">
-        <v>-53.80462914069501</v>
-      </c>
-      <c r="D22" t="n">
-        <v>404.2706023350705</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1360,12 +1224,6 @@
       <c r="B23" t="n">
         <v>177</v>
       </c>
-      <c r="C23" t="n">
-        <v>-40.0184162090435</v>
-      </c>
-      <c r="D23" t="n">
-        <v>390.2329644175252</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1374,12 +1232,6 @@
       <c r="B24" t="n">
         <v>179</v>
       </c>
-      <c r="C24" t="n">
-        <v>-45.59217472807192</v>
-      </c>
-      <c r="D24" t="n">
-        <v>391.1668950892308</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1388,12 +1240,6 @@
       <c r="B25" t="n">
         <v>181</v>
       </c>
-      <c r="C25" t="n">
-        <v>-47.34089955586433</v>
-      </c>
-      <c r="D25" t="n">
-        <v>398.5304907333594</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1402,12 +1248,6 @@
       <c r="B26" t="n">
         <v>182</v>
       </c>
-      <c r="C26" t="n">
-        <v>-52.11060072923312</v>
-      </c>
-      <c r="D26" t="n">
-        <v>408.9944334224615</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1416,12 +1256,6 @@
       <c r="B27" t="n">
         <v>183</v>
       </c>
-      <c r="C27" t="n">
-        <v>-43.79109692934537</v>
-      </c>
-      <c r="D27" t="n">
-        <v>416.0614421917281</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1430,12 +1264,6 @@
       <c r="B28" t="n">
         <v>183</v>
       </c>
-      <c r="C28" t="n">
-        <v>-53.42880982175542</v>
-      </c>
-      <c r="D28" t="n">
-        <v>397.2875980792705</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1444,12 +1272,6 @@
       <c r="B29" t="n">
         <v>187</v>
       </c>
-      <c r="C29" t="n">
-        <v>-37.05838284784337</v>
-      </c>
-      <c r="D29" t="n">
-        <v>418.5790075566449</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1458,12 +1280,6 @@
       <c r="B30" t="n">
         <v>197</v>
       </c>
-      <c r="C30" t="n">
-        <v>-37.71778975532214</v>
-      </c>
-      <c r="D30" t="n">
-        <v>409.29140820543</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1472,12 +1288,6 @@
       <c r="B31" t="n">
         <v>198</v>
       </c>
-      <c r="C31" t="n">
-        <v>-33.13806149139964</v>
-      </c>
-      <c r="D31" t="n">
-        <v>422.7435188059849</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1486,12 +1296,6 @@
       <c r="B32" t="n">
         <v>198</v>
       </c>
-      <c r="C32" t="n">
-        <v>-13.0294941564837</v>
-      </c>
-      <c r="D32" t="n">
-        <v>426.8720524297792</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1500,12 +1304,6 @@
       <c r="B33" t="n">
         <v>199</v>
       </c>
-      <c r="C33" t="n">
-        <v>-29.3013879268508</v>
-      </c>
-      <c r="D33" t="n">
-        <v>433.9803662952361</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1514,12 +1312,6 @@
       <c r="B34" t="n">
         <v>199</v>
       </c>
-      <c r="C34" t="n">
-        <v>-29.79267094274116</v>
-      </c>
-      <c r="D34" t="n">
-        <v>440.2444923551952</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1528,12 +1320,6 @@
       <c r="B35" t="n">
         <v>200</v>
       </c>
-      <c r="C35" t="n">
-        <v>-46.48695404441958</v>
-      </c>
-      <c r="D35" t="n">
-        <v>428.2550794069162</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1542,12 +1328,6 @@
       <c r="B36" t="n">
         <v>200</v>
       </c>
-      <c r="C36" t="n">
-        <v>-33.56933055952182</v>
-      </c>
-      <c r="D36" t="n">
-        <v>450.0053379971378</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1556,12 +1336,6 @@
       <c r="B37" t="n">
         <v>201</v>
       </c>
-      <c r="C37" t="n">
-        <v>-27.38905182285995</v>
-      </c>
-      <c r="D37" t="n">
-        <v>425.8460283406527</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1570,12 +1344,6 @@
       <c r="B38" t="n">
         <v>201</v>
       </c>
-      <c r="C38" t="n">
-        <v>-10.25356167449192</v>
-      </c>
-      <c r="D38" t="n">
-        <v>435.8483769323495</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1584,12 +1352,6 @@
       <c r="B39" t="n">
         <v>202</v>
       </c>
-      <c r="C39" t="n">
-        <v>-21.34787724938449</v>
-      </c>
-      <c r="D39" t="n">
-        <v>425.6045398307986</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1598,12 +1360,6 @@
       <c r="B40" t="n">
         <v>203</v>
       </c>
-      <c r="C40" t="n">
-        <v>-15.84913325767039</v>
-      </c>
-      <c r="D40" t="n">
-        <v>427.0864867845486</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1612,12 +1368,6 @@
       <c r="B41" t="n">
         <v>205</v>
       </c>
-      <c r="C41" t="n">
-        <v>-31.59311957043742</v>
-      </c>
-      <c r="D41" t="n">
-        <v>420.271315551419</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1626,12 +1376,6 @@
       <c r="B42" t="n">
         <v>205</v>
       </c>
-      <c r="C42" t="n">
-        <v>-24.7327670613058</v>
-      </c>
-      <c r="D42" t="n">
-        <v>421.8217645025487</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1640,12 +1384,6 @@
       <c r="B43" t="n">
         <v>206</v>
       </c>
-      <c r="C43" t="n">
-        <v>-12.01408114974858</v>
-      </c>
-      <c r="D43" t="n">
-        <v>437.3020860578099</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1654,12 +1392,6 @@
       <c r="B44" t="n">
         <v>206</v>
       </c>
-      <c r="C44" t="n">
-        <v>-18.00379955847925</v>
-      </c>
-      <c r="D44" t="n">
-        <v>444.5756037591564</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1668,12 +1400,6 @@
       <c r="B45" t="n">
         <v>208</v>
       </c>
-      <c r="C45" t="n">
-        <v>-4.459946445159673</v>
-      </c>
-      <c r="D45" t="n">
-        <v>433.9780003438468</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1682,12 +1408,6 @@
       <c r="B46" t="n">
         <v>208</v>
       </c>
-      <c r="C46" t="n">
-        <v>-14.69494599566723</v>
-      </c>
-      <c r="D46" t="n">
-        <v>429.9975219634454</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1696,12 +1416,6 @@
       <c r="B47" t="n">
         <v>209</v>
       </c>
-      <c r="C47" t="n">
-        <v>-18.30465306057593</v>
-      </c>
-      <c r="D47" t="n">
-        <v>429.9647016005885</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1710,12 +1424,6 @@
       <c r="B48" t="n">
         <v>210</v>
       </c>
-      <c r="C48" t="n">
-        <v>-5.053574078026948</v>
-      </c>
-      <c r="D48" t="n">
-        <v>410.4182053570485</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1724,12 +1432,6 @@
       <c r="B49" t="n">
         <v>210</v>
       </c>
-      <c r="C49" t="n">
-        <v>-22.98975438411694</v>
-      </c>
-      <c r="D49" t="n">
-        <v>442.6013941587495</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1738,12 +1440,6 @@
       <c r="B50" t="n">
         <v>211</v>
       </c>
-      <c r="C50" t="n">
-        <v>-1.588885880928661</v>
-      </c>
-      <c r="D50" t="n">
-        <v>448.0871982041684</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1752,12 +1448,6 @@
       <c r="B51" t="n">
         <v>211</v>
       </c>
-      <c r="C51" t="n">
-        <v>-17.78489954880907</v>
-      </c>
-      <c r="D51" t="n">
-        <v>418.8897686169318</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1766,12 +1456,6 @@
       <c r="B52" t="n">
         <v>212</v>
       </c>
-      <c r="C52" t="n">
-        <v>12.97720544991339</v>
-      </c>
-      <c r="D52" t="n">
-        <v>451.3595867638123</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1780,12 +1464,6 @@
       <c r="B53" t="n">
         <v>212</v>
       </c>
-      <c r="C53" t="n">
-        <v>-11.09200942605714</v>
-      </c>
-      <c r="D53" t="n">
-        <v>434.6418740570913</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1794,12 +1472,6 @@
       <c r="B54" t="n">
         <v>213</v>
       </c>
-      <c r="C54" t="n">
-        <v>-18.79279106612192</v>
-      </c>
-      <c r="D54" t="n">
-        <v>435.6406881157395</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1808,12 +1480,6 @@
       <c r="B55" t="n">
         <v>214</v>
       </c>
-      <c r="C55" t="n">
-        <v>-11.49256630960303</v>
-      </c>
-      <c r="D55" t="n">
-        <v>433.0532931937977</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1822,12 +1488,6 @@
       <c r="B56" t="n">
         <v>214</v>
       </c>
-      <c r="C56" t="n">
-        <v>-6.26142570368485</v>
-      </c>
-      <c r="D56" t="n">
-        <v>455.9010043134966</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1836,12 +1496,6 @@
       <c r="B57" t="n">
         <v>215</v>
       </c>
-      <c r="C57" t="n">
-        <v>-21.47882801177926</v>
-      </c>
-      <c r="D57" t="n">
-        <v>431.7768522254316</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1849,12 +1503,6 @@
       </c>
       <c r="B58" t="n">
         <v>215</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-5.061196340132772</v>
-      </c>
-      <c r="D58" t="n">
-        <v>434.2879377482606</v>
       </c>
     </row>
   </sheetData>
